--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N2">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q2">
-        <v>0.2317904103991666</v>
+        <v>0.2357272852696667</v>
       </c>
       <c r="R2">
-        <v>1.390742462395</v>
+        <v>1.414363711618</v>
       </c>
       <c r="S2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="T2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q3">
         <v>0.2954058294012222</v>
@@ -641,10 +641,10 @@
         <v>2.658652464611</v>
       </c>
       <c r="S3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="T3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N4">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q4">
-        <v>0.1659669233921111</v>
+        <v>0.1607155184714444</v>
       </c>
       <c r="R4">
-        <v>1.493702310529</v>
+        <v>1.446439666243</v>
       </c>
       <c r="S4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="T4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N5">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q5">
-        <v>0.4025684868205</v>
+        <v>0.3619925825945</v>
       </c>
       <c r="R5">
-        <v>2.415410920923</v>
+        <v>2.171955495567</v>
       </c>
       <c r="S5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="T5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N6">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q6">
-        <v>0.1817013374048889</v>
+        <v>0.02469941540733333</v>
       </c>
       <c r="R6">
-        <v>1.635312036644</v>
+        <v>0.222294738666</v>
       </c>
       <c r="S6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="T6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N7">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q7">
-        <v>0.1527989588204444</v>
+        <v>0.1117770853882222</v>
       </c>
       <c r="R7">
-        <v>1.375190629384</v>
+        <v>1.005993768494</v>
       </c>
       <c r="S7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="T7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
     </row>
   </sheetData>
